--- a/FE/distance_matrix.xlsx
+++ b/FE/distance_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1232 +436,1242 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Shelters</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Pambayang Dalubhasaan ng Marilao</t>
+          <t>Abangan Norte</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Abangan Norte Elementary School</t>
+          <t>Abangan Sur</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>JMJ Covered Court</t>
+          <t>Ibayo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Our Mother of Perpetual Help Chapel</t>
+          <t>Lambakin</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Abangan Sur Elementary School</t>
+          <t>Lias</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ibayo Elementary School</t>
+          <t>Loma de Gato</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Northville IV-A Covered Court</t>
+          <t>Nagbalon</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Lias Elementary School</t>
+          <t>Patubig</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>FSS Patulo Elementary School</t>
+          <t>Poblacion I</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Marilao Central School</t>
+          <t>Poblacion II</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Barangay Hall Nagbalon</t>
+          <t>Prenza I</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Patubig Elementary School</t>
+          <t>Prenza II</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Old Municipal Bldg.</t>
+          <t>Santa Rosa I</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Nicanor V. Guillermo Covered Court</t>
+          <t>Santa Rosa II</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Prenza Elementary School</t>
+          <t>Saog</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Saog Elementary School</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Ramcar Covered Court</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Sta. Rosa I Elementary School</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Sta. Rosa II Elementary School</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Barangay Hall Tabing Ilog</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Tabing Ilog Elementary School</t>
+          <t>Tabing Ilog</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abangan Norte</t>
+          <t>Pambayang Dalubhasaan ng Marilao</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2.420314</v>
       </c>
       <c r="C2" t="n">
-        <v>2.042683</v>
+        <v>1.800298</v>
       </c>
       <c r="D2" t="n">
-        <v>1.472668</v>
+        <v>3.658328</v>
       </c>
       <c r="E2" t="n">
-        <v>0.258817</v>
+        <v>6.914308000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1.303406</v>
+        <v>4.415280000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>3.757194000000001</v>
+        <v>10.119856</v>
       </c>
       <c r="H2" t="n">
-        <v>6.150869000000002</v>
+        <v>5.712612000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>4.328739000000001</v>
+        <v>5.025941</v>
       </c>
       <c r="J2" t="n">
-        <v>12.581726</v>
+        <v>2.987335</v>
       </c>
       <c r="K2" t="n">
-        <v>2.465174</v>
+        <v>2.473948</v>
       </c>
       <c r="L2" t="n">
-        <v>2.789477</v>
+        <v>7.486911999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>4.605246999999999</v>
+        <v>7.985651</v>
       </c>
       <c r="N2" t="n">
-        <v>2.12399</v>
+        <v>6.452928999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>2.163536</v>
+        <v>5.283370000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>6.989788000000003</v>
+        <v>3.787177</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.292364999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.265966</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.103031000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5.983926</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.928812</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.928812</v>
+        <v>2.558126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Abangan Sur</t>
+          <t>Abangan Norte Elementary School</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.800298</v>
+        <v>2.042683</v>
       </c>
       <c r="C3" t="n">
         <v>1.422667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8526520000000002</v>
+        <v>3.280696999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>1.115819</v>
+        <v>6.536677000000002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.150894</v>
+        <v>4.037648999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>2.755822</v>
+        <v>9.742224999999996</v>
       </c>
       <c r="H3" t="n">
-        <v>5.149497</v>
+        <v>5.334981000000002</v>
       </c>
       <c r="I3" t="n">
-        <v>3.327367000000001</v>
+        <v>4.64831</v>
       </c>
       <c r="J3" t="n">
-        <v>11.580354</v>
+        <v>2.609703999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>1.312662</v>
+        <v>2.096317</v>
       </c>
       <c r="L3" t="n">
-        <v>1.636965</v>
+        <v>7.109281</v>
       </c>
       <c r="M3" t="n">
-        <v>3.603875000000001</v>
+        <v>7.608020000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9714780000000001</v>
+        <v>6.075298</v>
       </c>
       <c r="O3" t="n">
-        <v>1.011024</v>
+        <v>6.157730000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>5.988416000000001</v>
+        <v>3.409545999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.290993</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.264594</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.101659000000001</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4.982554000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.92744</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.92744</v>
+        <v>2.180495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ibayo</t>
+          <t>JMJ Covered Court</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.658328</v>
+        <v>1.472668</v>
       </c>
       <c r="C4" t="n">
-        <v>3.280696999999999</v>
+        <v>0.8526520000000002</v>
       </c>
       <c r="D4" t="n">
         <v>2.710682</v>
       </c>
       <c r="E4" t="n">
-        <v>2.973849</v>
+        <v>5.966662000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>2.034558</v>
+        <v>3.467634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9883330000000001</v>
+        <v>9.172209999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>4.601423999999999</v>
+        <v>4.764966000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>2.124138</v>
+        <v>4.078295</v>
       </c>
       <c r="J4" t="n">
-        <v>11.98532</v>
+        <v>2.039689</v>
       </c>
       <c r="K4" t="n">
-        <v>0.57321</v>
+        <v>1.526302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.61309</v>
+        <v>6.539266</v>
       </c>
       <c r="M4" t="n">
-        <v>4.008841</v>
+        <v>7.038005</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9121859999999999</v>
+        <v>5.505282999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1.547388</v>
+        <v>5.587715000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>6.393382000000002</v>
+        <v>2.839531</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.872969</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.84657</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.506625000000001</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5.387520000000001</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.718362</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.718362</v>
+        <v>1.61048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lambakin</t>
+          <t>Our Mother of Perpetual Help Chapel</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.914308000000001</v>
+        <v>0.258817</v>
       </c>
       <c r="C5" t="n">
-        <v>6.536677000000002</v>
+        <v>1.115819</v>
       </c>
       <c r="D5" t="n">
-        <v>5.966662000000001</v>
+        <v>2.973849</v>
       </c>
       <c r="E5" t="n">
         <v>6.229829000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>5.436046</v>
+        <v>3.730801</v>
       </c>
       <c r="G5" t="n">
-        <v>4.422099</v>
+        <v>9.435376999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>0.424005</v>
+        <v>5.028133000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>2.481688000000001</v>
+        <v>4.341462000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>8.704473000000004</v>
+        <v>2.302856</v>
       </c>
       <c r="K5" t="n">
-        <v>4.636710999999999</v>
+        <v>1.789469</v>
       </c>
       <c r="L5" t="n">
-        <v>4.676590999999999</v>
+        <v>6.802432999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>3.324628000000001</v>
+        <v>7.301172</v>
       </c>
       <c r="N5" t="n">
-        <v>4.880040000000001</v>
+        <v>5.768449999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>5.089480000000002</v>
+        <v>5.850882000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>3.112534999999999</v>
+        <v>3.102698</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.865331</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.838932</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.225778000000001</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.649748</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4.510392</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4.510392</v>
+        <v>1.873647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lias</t>
+          <t>Abangan Sur Elementary School</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.415280000000001</v>
+        <v>1.303406</v>
       </c>
       <c r="C6" t="n">
-        <v>4.037648999999999</v>
+        <v>0.150894</v>
       </c>
       <c r="D6" t="n">
-        <v>3.467634</v>
+        <v>2.034558</v>
       </c>
       <c r="E6" t="n">
-        <v>3.730801</v>
+        <v>5.436046</v>
       </c>
       <c r="F6" t="n">
         <v>2.937018000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>1.594881</v>
+        <v>8.641594</v>
       </c>
       <c r="H6" t="n">
-        <v>3.028742</v>
+        <v>4.063208</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5514560000000001</v>
+        <v>3.547679</v>
       </c>
       <c r="J6" t="n">
-        <v>11.531691</v>
+        <v>1.337931</v>
       </c>
       <c r="K6" t="n">
-        <v>1.809493000000001</v>
+        <v>0.8245439999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.849373</v>
+        <v>6.008649999999998</v>
       </c>
       <c r="M6" t="n">
-        <v>4.870036</v>
+        <v>6.507388999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>2.148469</v>
+        <v>4.974666999999998</v>
       </c>
       <c r="O6" t="n">
-        <v>2.673186</v>
+        <v>5.057099</v>
       </c>
       <c r="P6" t="n">
-        <v>5.939753000000001</v>
+        <v>2.308915</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.038113</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.011714</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.052996000000001</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5.476966</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.475314</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.475314</v>
+        <v>1.079864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Loma de Gato</t>
+          <t>Ibayo Elementary School</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.119856</v>
+        <v>3.757194000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>9.742224999999996</v>
+        <v>2.755822</v>
       </c>
       <c r="D7" t="n">
-        <v>9.172209999999998</v>
+        <v>0.9883330000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>9.435376999999997</v>
+        <v>4.422099</v>
       </c>
       <c r="F7" t="n">
-        <v>8.641594</v>
+        <v>1.594881</v>
       </c>
       <c r="G7" t="n">
         <v>9.746857000000004</v>
       </c>
       <c r="H7" t="n">
-        <v>5.479164</v>
+        <v>3.796501</v>
       </c>
       <c r="I7" t="n">
-        <v>8.096283999999997</v>
+        <v>4.652941999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.089877</v>
+        <v>1.677989</v>
       </c>
       <c r="K7" t="n">
-        <v>8.388232999999998</v>
+        <v>2.191376</v>
       </c>
       <c r="L7" t="n">
-        <v>8.712536</v>
+        <v>7.113913</v>
       </c>
       <c r="M7" t="n">
-        <v>6.184143000000001</v>
+        <v>7.612652000000002</v>
       </c>
       <c r="N7" t="n">
-        <v>8.085588</v>
+        <v>6.07993</v>
       </c>
       <c r="O7" t="n">
-        <v>8.295027999999999</v>
+        <v>6.162362000000003</v>
       </c>
       <c r="P7" t="n">
-        <v>2.763826999999999</v>
+        <v>2.466647</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.282028</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9.255628999999999</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.152869999999998</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.993531999999999</v>
-      </c>
-      <c r="U7" t="n">
-        <v>7.715939999999999</v>
-      </c>
-      <c r="V7" t="n">
-        <v>7.715939999999999</v>
+        <v>2.465532999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Nagbalon</t>
+          <t>Northville IV-A Covered Court</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.712612000000001</v>
+        <v>6.150869000000002</v>
       </c>
       <c r="C8" t="n">
-        <v>5.334981000000002</v>
+        <v>5.149497</v>
       </c>
       <c r="D8" t="n">
-        <v>4.764966000000001</v>
+        <v>4.601423999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>5.028133000000001</v>
+        <v>0.424005</v>
       </c>
       <c r="F8" t="n">
-        <v>4.063208</v>
+        <v>3.028742</v>
       </c>
       <c r="G8" t="n">
-        <v>3.796501</v>
+        <v>5.479164</v>
       </c>
       <c r="H8" t="n">
         <v>7.080164000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>4.602878</v>
+        <v>3.011863000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>14.02348</v>
+        <v>4.931942</v>
       </c>
       <c r="K8" t="n">
-        <v>2.599652</v>
+        <v>4.616674000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>2.290653</v>
+        <v>2.846220000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>6.047000999999998</v>
+        <v>3.344959000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>2.940836</v>
+        <v>1.812237</v>
       </c>
       <c r="O8" t="n">
-        <v>3.576038</v>
+        <v>2.394699000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>8.431542000000002</v>
+        <v>4.92367</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.351709</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4.325309999999999</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7.544785000000001</v>
-      </c>
-      <c r="T8" t="n">
-        <v>7.425679999999999</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3.923475</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.923475</v>
+        <v>4.374960000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Patubig</t>
+          <t>Lias Elementary School</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.025941</v>
+        <v>4.328739000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>4.64831</v>
+        <v>3.327367000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>4.078295</v>
+        <v>2.124138</v>
       </c>
       <c r="E9" t="n">
-        <v>4.341462000000001</v>
+        <v>2.481688000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>3.547679</v>
+        <v>0.5514560000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>4.652941999999999</v>
+        <v>8.096283999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>3.011863000000001</v>
+        <v>4.602878</v>
       </c>
       <c r="I9" t="n">
         <v>5.224487</v>
       </c>
       <c r="J9" t="n">
-        <v>9.442720000000003</v>
+        <v>2.484366000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>3.294317999999999</v>
+        <v>2.877278</v>
       </c>
       <c r="L9" t="n">
-        <v>3.618620999999999</v>
+        <v>5.46334</v>
       </c>
       <c r="M9" t="n">
-        <v>0.199192</v>
+        <v>5.962079</v>
       </c>
       <c r="N9" t="n">
-        <v>2.991673</v>
+        <v>4.429356999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>3.201113</v>
+        <v>5.011819</v>
       </c>
       <c r="P9" t="n">
-        <v>3.850781999999999</v>
+        <v>2.446384000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.188113</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4.161714</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.964025</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.577871</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.622025</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.622025</v>
+        <v>3.037078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Poblacion I</t>
+          <t>FSS Patulo Elementary School</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.987335</v>
+        <v>12.581726</v>
       </c>
       <c r="C10" t="n">
-        <v>2.609703999999999</v>
+        <v>11.580354</v>
       </c>
       <c r="D10" t="n">
-        <v>2.039689</v>
+        <v>11.98532</v>
       </c>
       <c r="E10" t="n">
-        <v>2.302856</v>
+        <v>8.704473000000004</v>
       </c>
       <c r="F10" t="n">
-        <v>1.337931</v>
+        <v>11.531691</v>
       </c>
       <c r="G10" t="n">
-        <v>1.677989</v>
+        <v>3.089877</v>
       </c>
       <c r="H10" t="n">
-        <v>4.931942</v>
+        <v>14.02348</v>
       </c>
       <c r="I10" t="n">
-        <v>2.484366000000001</v>
+        <v>9.442720000000003</v>
       </c>
       <c r="J10" t="n">
         <v>11.362799</v>
       </c>
       <c r="K10" t="n">
-        <v>0.125625</v>
+        <v>11.047531</v>
       </c>
       <c r="L10" t="n">
-        <v>0.449928</v>
+        <v>5.722821</v>
       </c>
       <c r="M10" t="n">
-        <v>3.38632</v>
+        <v>5.837302</v>
       </c>
       <c r="N10" t="n">
-        <v>0.215559</v>
+        <v>6.964638000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>0.850761</v>
+        <v>7.963792000000002</v>
       </c>
       <c r="P10" t="n">
-        <v>5.770861000000001</v>
+        <v>12.218412</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.233197</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.206798</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.884104000000001</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.764999</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.262794</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.262794</v>
+        <v>10.805817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Poblacion II</t>
+          <t>Marilao Central School</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.473948</v>
+        <v>2.465174</v>
       </c>
       <c r="C11" t="n">
-        <v>2.096317</v>
+        <v>1.312662</v>
       </c>
       <c r="D11" t="n">
-        <v>1.526302</v>
+        <v>0.57321</v>
       </c>
       <c r="E11" t="n">
-        <v>1.789469</v>
+        <v>4.636710999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8245439999999999</v>
+        <v>1.809493000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>2.191376</v>
+        <v>8.388232999999998</v>
       </c>
       <c r="H11" t="n">
-        <v>4.616674000000001</v>
+        <v>2.599652</v>
       </c>
       <c r="I11" t="n">
-        <v>2.877278</v>
+        <v>3.294317999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>11.047531</v>
+        <v>0.125625</v>
       </c>
       <c r="K11" t="n">
         <v>0.639012</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9633149999999999</v>
+        <v>5.755288999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>3.071052000000001</v>
+        <v>6.254028</v>
       </c>
       <c r="N11" t="n">
-        <v>0.297828</v>
+        <v>4.721306</v>
       </c>
       <c r="O11" t="n">
-        <v>0.337374</v>
+        <v>4.803738000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>5.455593</v>
+        <v>1.966595000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.840904</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.814505</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.568836</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4.449731000000001</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.7590640000000001</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.7590640000000001</v>
+        <v>1.378105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Prenza I</t>
+          <t>Barangay Hall Nagbalon</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.486911999999999</v>
+        <v>2.789477</v>
       </c>
       <c r="C12" t="n">
-        <v>7.109281</v>
+        <v>1.636965</v>
       </c>
       <c r="D12" t="n">
-        <v>6.539266</v>
+        <v>0.61309</v>
       </c>
       <c r="E12" t="n">
-        <v>6.802432999999999</v>
+        <v>4.676590999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>6.008649999999998</v>
+        <v>1.849373</v>
       </c>
       <c r="G12" t="n">
-        <v>7.113913</v>
+        <v>8.712536</v>
       </c>
       <c r="H12" t="n">
-        <v>2.846220000000001</v>
+        <v>2.290653</v>
       </c>
       <c r="I12" t="n">
-        <v>5.46334</v>
+        <v>3.618620999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>5.722821</v>
+        <v>0.449928</v>
       </c>
       <c r="K12" t="n">
-        <v>5.755288999999999</v>
+        <v>0.9633149999999999</v>
       </c>
       <c r="L12" t="n">
         <v>6.079592</v>
       </c>
       <c r="M12" t="n">
-        <v>3.551199</v>
+        <v>6.578331</v>
       </c>
       <c r="N12" t="n">
-        <v>5.452643999999999</v>
+        <v>5.045609000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>5.662084</v>
+        <v>5.128041000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>0.130883</v>
+        <v>2.006475</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.649084</v>
-      </c>
-      <c r="R12" t="n">
-        <v>6.622685</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.519926</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.360588</v>
-      </c>
-      <c r="U12" t="n">
-        <v>5.082996</v>
-      </c>
-      <c r="V12" t="n">
-        <v>5.082996</v>
+        <v>1.702408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Prenza II</t>
+          <t>Patubig Elementary School</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.985651</v>
+        <v>4.605246999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>7.608020000000001</v>
+        <v>3.603875000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>7.038005</v>
+        <v>4.008841</v>
       </c>
       <c r="E13" t="n">
-        <v>7.301172</v>
+        <v>3.324628000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>6.507388999999999</v>
+        <v>4.870036</v>
       </c>
       <c r="G13" t="n">
-        <v>7.612652000000002</v>
+        <v>6.184143000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>3.344959000000001</v>
+        <v>6.047000999999998</v>
       </c>
       <c r="I13" t="n">
-        <v>5.962079</v>
+        <v>0.199192</v>
       </c>
       <c r="J13" t="n">
-        <v>5.837302</v>
+        <v>3.38632</v>
       </c>
       <c r="K13" t="n">
-        <v>6.254028</v>
+        <v>3.071052000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>6.578331</v>
+        <v>3.551199</v>
       </c>
       <c r="M13" t="n">
         <v>4.049938</v>
       </c>
       <c r="N13" t="n">
-        <v>5.951383</v>
+        <v>2.863249000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>6.160823000000001</v>
+        <v>1.310228</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6296220000000001</v>
+        <v>4.241933</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.147823000000001</v>
-      </c>
-      <c r="R13" t="n">
-        <v>7.121424</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.018665</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.859327</v>
-      </c>
-      <c r="U13" t="n">
-        <v>5.581735</v>
-      </c>
-      <c r="V13" t="n">
-        <v>5.581735</v>
+        <v>2.829338000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Santa Rosa I</t>
+          <t>Old Municipal Bldg.</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.452928999999999</v>
+        <v>2.12399</v>
       </c>
       <c r="C14" t="n">
-        <v>6.075298</v>
+        <v>0.9714780000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>5.505282999999999</v>
+        <v>0.9121859999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.768449999999999</v>
+        <v>4.880040000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>4.974666999999998</v>
+        <v>2.148469</v>
       </c>
       <c r="G14" t="n">
-        <v>6.07993</v>
+        <v>8.085588</v>
       </c>
       <c r="H14" t="n">
-        <v>1.812237</v>
+        <v>2.940836</v>
       </c>
       <c r="I14" t="n">
-        <v>4.429356999999999</v>
+        <v>2.991673</v>
       </c>
       <c r="J14" t="n">
-        <v>6.964638000000001</v>
+        <v>0.215559</v>
       </c>
       <c r="K14" t="n">
-        <v>4.721306</v>
+        <v>0.297828</v>
       </c>
       <c r="L14" t="n">
-        <v>5.045609000000001</v>
+        <v>5.452643999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>2.863249000000001</v>
+        <v>5.951383</v>
       </c>
       <c r="N14" t="n">
         <v>4.418661</v>
       </c>
       <c r="O14" t="n">
-        <v>4.628101000000001</v>
+        <v>4.501093000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>1.3727</v>
+        <v>2.005537</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.615100999999999</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5.588702</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.2781090000000001</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.719773</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4.049013</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4.049013</v>
+        <v>1.056892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Santa Rosa II</t>
+          <t>Nicanor V. Guillermo Covered Court</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.283370000000001</v>
+        <v>2.163536</v>
       </c>
       <c r="C15" t="n">
-        <v>6.157730000000002</v>
+        <v>1.011024</v>
       </c>
       <c r="D15" t="n">
-        <v>5.587715000000001</v>
+        <v>1.547388</v>
       </c>
       <c r="E15" t="n">
-        <v>5.850882000000001</v>
+        <v>5.089480000000002</v>
       </c>
       <c r="F15" t="n">
-        <v>5.057099</v>
+        <v>2.673186</v>
       </c>
       <c r="G15" t="n">
-        <v>6.162362000000003</v>
+        <v>8.295027999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2.394699000000001</v>
+        <v>3.576038</v>
       </c>
       <c r="I15" t="n">
-        <v>5.011819</v>
+        <v>3.201113</v>
       </c>
       <c r="J15" t="n">
-        <v>7.963792000000002</v>
+        <v>0.850761</v>
       </c>
       <c r="K15" t="n">
-        <v>4.803738000000001</v>
+        <v>0.337374</v>
       </c>
       <c r="L15" t="n">
-        <v>5.128041000000001</v>
+        <v>5.662084</v>
       </c>
       <c r="M15" t="n">
-        <v>1.310228</v>
+        <v>6.160823000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>4.501093000000001</v>
+        <v>4.628101000000001</v>
       </c>
       <c r="O15" t="n">
         <v>4.710533000000002</v>
       </c>
       <c r="P15" t="n">
-        <v>2.371854</v>
+        <v>2.045083</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.697533000000001</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5.671134000000001</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.878265</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.119617</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4.131445</v>
-      </c>
-      <c r="V15" t="n">
-        <v>4.131445</v>
+        <v>1.096438</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Saog</t>
+          <t>Prenza Elementary School</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.787177</v>
+        <v>6.989788000000003</v>
       </c>
       <c r="C16" t="n">
-        <v>3.409545999999999</v>
+        <v>5.988416000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>2.839531</v>
+        <v>6.393382000000002</v>
       </c>
       <c r="E16" t="n">
-        <v>3.102698</v>
+        <v>3.112534999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>2.308915</v>
+        <v>5.939753000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466647</v>
+        <v>2.763826999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>4.92367</v>
+        <v>8.431542000000002</v>
       </c>
       <c r="I16" t="n">
-        <v>2.446384000000001</v>
+        <v>3.850781999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>12.218412</v>
+        <v>5.770861000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>1.966595000000001</v>
+        <v>5.455593</v>
       </c>
       <c r="L16" t="n">
-        <v>2.006475</v>
+        <v>0.130883</v>
       </c>
       <c r="M16" t="n">
-        <v>4.241933</v>
+        <v>0.6296220000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>2.005537</v>
+        <v>1.3727</v>
       </c>
       <c r="O16" t="n">
-        <v>2.045083</v>
+        <v>2.371854</v>
       </c>
       <c r="P16" t="n">
         <v>6.626474000000002</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.352249</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.116786</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5.739717000000002</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5.620612</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.847211</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.847211</v>
+        <v>5.213879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Tabing Ilog</t>
+          <t>Saog Elementary School</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.558126</v>
+        <v>3.292364999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>2.180495</v>
+        <v>2.290993</v>
       </c>
       <c r="D17" t="n">
-        <v>1.61048</v>
+        <v>1.872969</v>
       </c>
       <c r="E17" t="n">
-        <v>1.873647</v>
+        <v>4.865331</v>
       </c>
       <c r="F17" t="n">
-        <v>1.079864</v>
+        <v>2.038113</v>
       </c>
       <c r="G17" t="n">
-        <v>2.465532999999999</v>
+        <v>9.282028</v>
       </c>
       <c r="H17" t="n">
-        <v>4.374960000000001</v>
+        <v>4.351709</v>
       </c>
       <c r="I17" t="n">
-        <v>3.037078</v>
+        <v>4.188113</v>
       </c>
       <c r="J17" t="n">
-        <v>10.805817</v>
+        <v>2.233197</v>
       </c>
       <c r="K17" t="n">
-        <v>1.378105</v>
+        <v>1.840904</v>
       </c>
       <c r="L17" t="n">
-        <v>1.702408</v>
+        <v>6.649084</v>
       </c>
       <c r="M17" t="n">
-        <v>2.829338000000001</v>
+        <v>7.147823000000001</v>
       </c>
       <c r="N17" t="n">
-        <v>1.056892</v>
+        <v>5.615100999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>1.096438</v>
+        <v>5.697533000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>5.213879</v>
+        <v>0.352249</v>
       </c>
       <c r="Q17" t="n">
         <v>2.000704</v>
       </c>
-      <c r="R17" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Ramcar Covered Court</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.265966</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.264594</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.84657</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.838932</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.011714</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.255628999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.325309999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.161714</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.206798</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.814505</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.622685</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.121424</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.588702</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.671134000000001</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.116786</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.974305</v>
       </c>
-      <c r="S17" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Sta. Rosa I Elementary School</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6.103031000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.101659000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.506625000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.225778000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.052996000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.152869999999998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.544785000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.964025</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.884104000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.568836</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.519926</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.018665</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2781090000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.878265</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.739717000000002</v>
+      </c>
+      <c r="Q19" t="n">
         <v>4.327121999999999</v>
       </c>
-      <c r="T17" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Sta. Rosa II Elementary School</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5.983926</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.982554000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.387520000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.649748</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.476966</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.993531999999999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.425679999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.577871</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.764999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.449731000000001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.360588</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.859327</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.719773</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.119617</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.620612</v>
+      </c>
+      <c r="Q20" t="n">
         <v>4.208017</v>
       </c>
-      <c r="U17" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Barangay Hall Tabing Ilog</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.928812</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.92744</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.718362</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.510392</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.475314</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.715939999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.923475</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.622025</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.262794</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7590640000000001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.082996</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.581735</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.049013</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.131445</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.847211</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="V17" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Tabing Ilog Elementary School</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.928812</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.92744</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.718362</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.510392</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.475314</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.715939999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.923475</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.622025</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.262794</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7590640000000001</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.082996</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.581735</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.049013</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.131445</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.847211</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0</v>
       </c>
     </row>
